--- a/Plan1.xlsx
+++ b/Plan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\CTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7695FD-EC88-4F3F-AE4C-26E8E30F1D39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E0240-10F4-44A4-A13B-9C51829E697F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3C00A97-FEA7-42AD-B470-0F975817B33E}"/>
   </bookViews>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>application.properties, logging.level, logging.pattern, server.port, LoggerFactory, Logger, log levels (trace, debug, info, warn, error)</t>
-  </si>
-  <si>
-    <t>Team 1</t>
   </si>
   <si>
     <t>REST Web Services Introduction</t>
@@ -100,9 +97,6 @@
 Retrieving LIST in REST, Writing a RESTful Web Services with JSON</t>
   </si>
   <si>
-    <t>Team 2</t>
-  </si>
-  <si>
     <t>Testing Restful Webservices uisng Mock MVC</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
 Create Oauth Config Class to define secret keys, public private keys , token validity and scopes
 Write a Spring Boot RESt application, use Auth and Resource Servers
 Try triggering REST requests with and without valid tokens and checking response</t>
-  </si>
-  <si>
-    <t>Team 3</t>
   </si>
   <si>
     <t>Microservices Basics, Monolithic to Microservices</t>
@@ -149,9 +140,6 @@
 4. Securing Microservices with Security</t>
   </si>
   <si>
-    <t>Team 4</t>
-  </si>
-  <si>
     <t>Introduction to Docker</t>
   </si>
   <si>
@@ -178,6 +166,18 @@
   </si>
   <si>
     <t>team 5</t>
+  </si>
+  <si>
+    <t>Shahana, Rahul, Ashish, Amruta</t>
+  </si>
+  <si>
+    <t>Shreyas</t>
+  </si>
+  <si>
+    <t>Nandhini</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
   </si>
 </sst>
 </file>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC023BB-916D-4BEA-A91F-7D9F7B0D577F}">
   <dimension ref="A3:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -684,103 +684,103 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Plan1.xlsx
+++ b/Plan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\CTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E0240-10F4-44A4-A13B-9C51829E697F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539A865-B959-4EE8-BC19-924276ECB5E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3C00A97-FEA7-42AD-B470-0F975817B33E}"/>
   </bookViews>
@@ -165,9 +165,6 @@
 package application; virtual machine; image; container</t>
   </si>
   <si>
-    <t>team 5</t>
-  </si>
-  <si>
     <t>Shahana, Rahul, Ashish, Amruta</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Mallika</t>
   </si>
 </sst>
 </file>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC023BB-916D-4BEA-A91F-7D9F7B0D577F}">
   <dimension ref="A3:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="15" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="17" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>

--- a/Plan1.xlsx
+++ b/Plan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\CTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539A865-B959-4EE8-BC19-924276ECB5E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89BAC3-78E6-4207-982D-5E58CBC5E4F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3C00A97-FEA7-42AD-B470-0F975817B33E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Spring Boot Introduction for Spring REST</t>
   </si>
@@ -179,12 +179,131 @@
   <si>
     <t>Mallika</t>
   </si>
+  <si>
+    <t>Hosting a MySQL database with schema creation using docker</t>
+  </si>
+  <si>
+    <t>docker-compose.yml, docker-compose up command, mapping MySQL data file to local folder, schema creation script execution definition, defining port, password definition, docker compose up, executing mysql client on the mysql server container</t>
+  </si>
+  <si>
+    <t>Hosting a REST API Microservice using docker</t>
+  </si>
+  <si>
+    <t>Defining Dockerfile for REST API, building Dockerfile from docker-compose.yml, using depends_on in docker compose to define dependencies, using links to establish connectivity between REST API service and MySQL server, modify connection properties in REST API to connect to the docker instance</t>
+  </si>
+  <si>
+    <t>Ashish</t>
+  </si>
+  <si>
+    <t>Introduction to Kubernetes</t>
+  </si>
+  <si>
+    <t>What,  Why and Features of Kubernetes, Kubernetes Architecture
+Kubernetes Cluster, Master, Node
+Kubernetes Architecture 
+Kubernetes Basics Modules ( Create a Kubernetes Cluster, Deploy an App, Explore your App, Expose your app publicly, Scale up your App, Update your app)</t>
+  </si>
+  <si>
+    <t>Kubernetes Demonstration</t>
+  </si>
+  <si>
+    <t>Deploy the container image created earlier on A Kubernetes cluster. Use an open source framework like Minikube for a standalone deployment</t>
+  </si>
+  <si>
+    <t>Kubernetes Cluster, Master, Node</t>
+  </si>
+  <si>
+    <t>Introduction to cloud computing</t>
+  </si>
+  <si>
+    <t>Introduction:
+What is Cloud? Difference between on-premise server and cloud offerings. Google cloud, Microsoft cloud - Azure, Amazon cloud, Google cloud
+Server maintenance, storage space, application scalability, network access, server placement across globe for quick response, load balancing
+Offerings: 
+IAAS, PAAS, SAAS; 
+Major players in Cloud: Market share, sample list of consumers, services, pricing</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>Containers - what is a container, how is it used, why is it needed, Container registry;
+Compute - Virtual machines:
+What is the application deployment lifecycle, deployment servers and software installation, problems that could occur on application deployment to another server - environment server with different configuration
+Virtualization concept, What is Virtual machine?, How is a VM configured? Hardware level virtualization, Usage of Hypervisor, different OS on a physical machine, Advantage - Secured due to OS level isolation, Disadvantages - Heavy weight  &amp; slow provisioning due to different OS installation
+OS level virtualization, Advantages - Light weight as no need for different OS installation, scalable, Native performance, Disadvantage - Less secure due to process level isolation</t>
+  </si>
+  <si>
+    <t>VPC, Security Groups, Gateway, NACL etc.</t>
+  </si>
+  <si>
+    <t>Create environment in AWS containing VPC, Subnets, Security groups …for deploying Angular App using EB/EC2</t>
+  </si>
+  <si>
+    <t>Fundamentals of AWS</t>
+  </si>
+  <si>
+    <t>Global cloud infrastructure of AWS  (Regions, AZ), Cloud services -- Compute, Storage, Database, Container</t>
+  </si>
+  <si>
+    <t>CI/CD in AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducing devops (CI/CD) on AWS </t>
+  </si>
+  <si>
+    <t>Pub/Sub messaging using Apache Kafka and AWS MSK using S3 buckets</t>
+  </si>
+  <si>
+    <t>Event Driven Architecture - Intro, Benefits
+Communication Patterns - Queuing, Pub/Sub
+Asynchronous Processing using Pub/Sub
+Introduction to Apache kafka
+ - Producer, Consumer, Stream, Connector APIs
+Apache Kafka vs. Rabbit MQ
+Create MSK Kafka Clusters on AWS
+Deploy Kafka Producers and Consumers in EC2
+Deploy Kakfa Broker in ECS
+Consume JSON messages and persist in a S3 bucket</t>
+  </si>
+  <si>
+    <t>Deploying an application on AWS</t>
+  </si>
+  <si>
+    <t>Create Microservices and deploy them using AWS Code Pipeline, dockerize and push them into ECR
+Orchestrate containers using ECS
+Perform Fargate Deployment
+Configure ALBs for the microservices which are deployed under service clusters
+Use RDS service to configure the databases of microservices
+Use Angular App to consume data from microservices
+Use Feign Client for Inter-service communication
+Use Swagger for Documentation
+Configure Security Groups / In-bound and Out-bound rules for establishing necessary communication</t>
+  </si>
+  <si>
+    <t>Introduction to Devops -- CI/CD  on cloud on AWS</t>
+  </si>
+  <si>
+    <t>Introducing DevOps, CI/CD stack-- Code Commit, Code Build, Code Deploy, Code Pipeline, Code Star</t>
+  </si>
+  <si>
+    <t>CI/CD hands on lab</t>
+  </si>
+  <si>
+    <t>CI/CD with AWS Code services.</t>
+  </si>
+  <si>
+    <t>CI/CD with microservices deployed on ECS/EKS</t>
+  </si>
+  <si>
+    <t>Setup Codepipeline within the AWS environment that will automate the build &amp; deployment of microservices containers on ECS / EKS. Developers will write / enhance microservices &amp; commit it to the source control repository. They will then watch how the CI/CD is automatically executed without downtime to the existing service                                                                                           TASKS:                                                                                                                1. Setting up code repository for microservices                                            2. Infrastructure automation setup                                                          3. Infrastructure creation using automation scripts                                      4. Use the CI/CD infrastructure &amp; check automated build, deploy of artifacts on the container instances. Eg for ECS, the build should create a container image of  a microservice &amp; push it to the ECR repository, The deploy should deploy the container images on the ECS cluster having a task definition, Service, Target group                                                                                                                5. The above process should be repeated so that any changes to the source code will result in the containers being automatically updated to reflect the new change</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +325,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,6 +432,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,6 +451,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC023BB-916D-4BEA-A91F-7D9F7B0D577F}">
-  <dimension ref="A3:C18"/>
+  <dimension ref="A3:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +788,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -655,38 +799,38 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -694,15 +838,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -710,21 +854,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -735,8 +879,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -744,7 +888,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -755,7 +899,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
@@ -764,7 +908,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -775,7 +919,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -783,8 +927,132 @@
         <v>24</v>
       </c>
     </row>
+    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="138" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B8:B9"/>
